--- a/测试.xlsx
+++ b/测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elk\vue-project\software\Library-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93562DCF-987E-4F03-9A9D-B14A2AAFC501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A750919C-6ACB-4B78-BEBD-ED15D60B2D3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>JavaScript高级程序设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>book_return_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_seller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某出版社</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -437,9 +445,11 @@
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="28.9140625" customWidth="1"/>
     <col min="4" max="5" width="20.9140625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -464,8 +474,11 @@
       <c r="H1" t="s">
         <v>18</v>
       </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -490,8 +503,11 @@
       <c r="H2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>

--- a/测试.xlsx
+++ b/测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elk\vue-project\software\Library-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A750919C-6ACB-4B78-BEBD-ED15D60B2D3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38C1CB3-860B-4431-B3E8-A071379E127C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>JavaScript高级程序设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>book_seller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某出版社</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +432,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -503,9 +499,6 @@
       <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
